--- a/backend/Rankings/dgrsdt/2019/A+.xlsx
+++ b/backend/Rankings/dgrsdt/2019/A+.xlsx
@@ -30434,7 +30434,7 @@
   <dimension ref="A1:D1312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
